--- a/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3843,13 +3846,13 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>12223</v>
+        <v>12213</v>
       </c>
       <c r="C173">
         <v>2909</v>
       </c>
       <c r="D173">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E173">
         <v>312</v>
@@ -3860,13 +3863,13 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>13731</v>
+        <v>13721</v>
       </c>
       <c r="C174">
         <v>2772</v>
       </c>
       <c r="D174">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E174">
         <v>273</v>
@@ -3877,16 +3880,33 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>12536</v>
+        <v>12526</v>
       </c>
       <c r="C175">
         <v>1833</v>
       </c>
       <c r="D175">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E175">
         <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>12994</v>
+      </c>
+      <c r="C176">
+        <v>2714</v>
+      </c>
+      <c r="D176">
+        <v>1375</v>
+      </c>
+      <c r="E176">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3863,13 +3866,13 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>13721</v>
+        <v>13711</v>
       </c>
       <c r="C174">
         <v>2772</v>
       </c>
       <c r="D174">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E174">
         <v>273</v>
@@ -3880,13 +3883,13 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>12526</v>
+        <v>12516</v>
       </c>
       <c r="C175">
         <v>1833</v>
       </c>
       <c r="D175">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E175">
         <v>190</v>
@@ -3897,16 +3900,33 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>12994</v>
+        <v>12984</v>
       </c>
       <c r="C176">
         <v>2714</v>
       </c>
       <c r="D176">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E176">
         <v>287</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>12251</v>
+      </c>
+      <c r="C177">
+        <v>1348</v>
+      </c>
+      <c r="D177">
+        <v>1307</v>
+      </c>
+      <c r="E177">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
+++ b/6/1/3/Cobre 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3929,6 +3932,23 @@
         <v>144</v>
       </c>
     </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>11684</v>
+      </c>
+      <c r="C178">
+        <v>1181</v>
+      </c>
+      <c r="D178">
+        <v>1253</v>
+      </c>
+      <c r="E178">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
